--- a/ConceptMap-R5-SubstanceDefinition-elements-for-R4-SubstanceSpecification.xlsx
+++ b/ConceptMap-R5-SubstanceDefinition-elements-for-R4-SubstanceSpecification.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="239">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.2551471-06:00</t>
+    <t>2026-02-17T14:42:27.5741971-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -381,24 +381,15 @@
     <t>method</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification#SubstanceSpecification.molecularWeight.method</t>
-  </si>
-  <si>
     <t>SubstanceDefinition.molecularWeight.type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification#SubstanceSpecification.molecularWeight.type</t>
-  </si>
-  <si>
     <t>SubstanceDefinition.molecularWeight.amount</t>
   </si>
   <si>
     <t>amount</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification#SubstanceSpecification.molecularWeight.amount</t>
-  </si>
-  <si>
     <t>SubstanceDefinition.structure</t>
   </si>
   <si>
@@ -441,24 +432,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification#SubstanceSpecification.structure.molecularWeight</t>
   </si>
   <si>
-    <t>SubstanceDefinition.structure.molecularWeight.method</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification#SubstanceSpecification.structure.molecularWeight.method</t>
-  </si>
-  <si>
-    <t>SubstanceDefinition.structure.molecularWeight.type</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification#SubstanceSpecification.structure.molecularWeight.type</t>
-  </si>
-  <si>
-    <t>SubstanceDefinition.structure.molecularWeight.amount</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification#SubstanceSpecification.structure.molecularWeight.amount</t>
-  </si>
-  <si>
     <t>SubstanceDefinition.structure.technique</t>
   </si>
   <si>
@@ -510,43 +483,43 @@
     <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification#SubstanceSpecification.code</t>
   </si>
   <si>
+    <t>SubstanceDefinition.code.code</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification#SubstanceSpecification.code.code</t>
+  </si>
+  <si>
+    <t>SubstanceDefinition.code.status</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification#SubstanceSpecification.code.status</t>
+  </si>
+  <si>
+    <t>SubstanceDefinition.code.statusDate</t>
+  </si>
+  <si>
+    <t>statusDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification#SubstanceSpecification.code.statusDate</t>
+  </si>
+  <si>
+    <t>SubstanceDefinition.code.note</t>
+  </si>
+  <si>
+    <t>SubstanceDefinition.code.source</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification#SubstanceSpecification.code.source</t>
+  </si>
+  <si>
     <t>SubstanceDefinition.name</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification#SubstanceSpecification.name</t>
-  </si>
-  <si>
-    <t>SubstanceDefinition.code.code</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification#SubstanceSpecification.code.code</t>
-  </si>
-  <si>
-    <t>SubstanceDefinition.code.status</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification#SubstanceSpecification.code.status</t>
-  </si>
-  <si>
-    <t>SubstanceDefinition.code.statusDate</t>
-  </si>
-  <si>
-    <t>statusDate</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification#SubstanceSpecification.code.statusDate</t>
-  </si>
-  <si>
-    <t>SubstanceDefinition.code.note</t>
-  </si>
-  <si>
-    <t>SubstanceDefinition.code.source</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SubstanceSpecification#SubstanceSpecification.code.source</t>
   </si>
   <si>
     <t>SubstanceDefinition.name.name</t>
@@ -1013,7 +986,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1528,406 +1501,406 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>112</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>89</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>118</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -1966,299 +1939,260 @@
         <v>197</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B74" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>217</v>
+        <v>95</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>112</v>
+        <v>216</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="E85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c r="E86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>32</v>
+        <v>229</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>233</v>
+        <v>112</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>32</v>
+        <v>229</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>32</v>
+        <v>229</v>
       </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E92" s="2"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="E95" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
